--- a/CCK8_Assay_Plots/20230920_KumarLAB_CCK8_DMAEMA70equiv_AW copy.xlsx
+++ b/CCK8_Assay_Plots/20230920_KumarLAB_CCK8_DMAEMA70equiv_AW copy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mines0-my.sharepoint.com/personal/aryellewright_mines_edu/Documents/Research/Kumar Research Lab/Aryelle's Lab Notebook/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mines0-my.sharepoint.com/personal/aryellewright_mines_edu/Documents/Research/Kumar Research Lab/Aryelle's Lab Notebook/CCK8 Plate Reader Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="11_DC8AA28A82E68919E474A5A4A3E2FD53C58BEF8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5543850B-E253-7040-94CD-70660EA3138E}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="11_DC8AA28A82E68919E474A5A4A3E2FD53C58BEF8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF781CA0-F24B-2D45-B4BD-174DBB9BFB6D}"/>
   <bookViews>
-    <workbookView xWindow="-20860" yWindow="11200" windowWidth="25600" windowHeight="15980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25800" yWindow="0" windowWidth="25400" windowHeight="28800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plate 1 - Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="79">
   <si>
     <t>Software Version</t>
   </si>
@@ -173,9 +173,6 @@
     <t>H</t>
   </si>
   <si>
-    <t>Absorbance at 720</t>
-  </si>
-  <si>
     <t>Absorbance at 460</t>
   </si>
   <si>
@@ -273,13 +270,19 @@
   </si>
   <si>
     <t>jetPEI</t>
+  </si>
+  <si>
+    <t>Transfection</t>
+  </si>
+  <si>
+    <t>pDNA+water</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -512,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -606,15 +609,6 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -630,12 +624,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -923,17 +954,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O67"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36:I51"/>
+    <sheetView topLeftCell="A24" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -941,7 +972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -949,12 +980,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -962,7 +993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -970,7 +1001,7 @@
         <v>45189</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -978,7 +1009,7 @@
         <v>0.56914351851851852</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -986,7 +1017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -994,7 +1025,7 @@
         <v>14092513</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1002,13 +1033,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="14">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1016,12 +1047,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1029,22 +1060,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="B17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="B18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="B19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1052,48 +1083,48 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="B21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="B22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6">
       <c r="B23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6">
       <c r="B24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6">
       <c r="B25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6">
       <c r="B26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="B27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="14">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1101,15 +1132,19 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="F31">
+        <f>AVERAGE(C38:H38,C46:H46,C50:H50,E42,G42:H42)</f>
+        <v>4.433333333333335E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1117,7 +1152,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1125,7 +1160,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:15">
       <c r="B35" s="5"/>
       <c r="C35" s="6">
         <v>1</v>
@@ -1164,8 +1199,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B36" s="33" t="s">
+    <row r="36" spans="1:15">
+      <c r="B36" s="42" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="7">
@@ -1198,8 +1233,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B37" s="34"/>
+    <row r="37" spans="1:15">
+      <c r="B37" s="43"/>
       <c r="C37" s="13">
         <v>0.34200000000000003</v>
       </c>
@@ -1230,8 +1265,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B38" s="34"/>
+    <row r="38" spans="1:15">
+      <c r="B38" s="43"/>
       <c r="C38" s="13">
         <v>4.1000000000000002E-2</v>
       </c>
@@ -1262,8 +1297,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="36" x14ac:dyDescent="0.15">
-      <c r="B39" s="35"/>
+    <row r="39" spans="1:15" ht="36">
+      <c r="B39" s="44"/>
       <c r="C39" s="18">
         <v>129813</v>
       </c>
@@ -1294,8 +1329,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B40" s="33" t="s">
+    <row r="40" spans="1:15">
+      <c r="B40" s="42" t="s">
         <v>37</v>
       </c>
       <c r="C40" s="20">
@@ -1328,8 +1363,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B41" s="34"/>
+    <row r="41" spans="1:15">
+      <c r="B41" s="43"/>
       <c r="C41" s="23">
         <v>1.3879999999999999</v>
       </c>
@@ -1360,8 +1395,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B42" s="34"/>
+    <row r="42" spans="1:15">
+      <c r="B42" s="43"/>
       <c r="C42" s="23">
         <v>1.1100000000000001</v>
       </c>
@@ -1392,8 +1427,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="36" x14ac:dyDescent="0.15">
-      <c r="B43" s="35"/>
+    <row r="43" spans="1:15" ht="36">
+      <c r="B43" s="44"/>
       <c r="C43" s="26">
         <v>304731</v>
       </c>
@@ -1424,8 +1459,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B44" s="33" t="s">
+    <row r="44" spans="1:15">
+      <c r="B44" s="42" t="s">
         <v>38</v>
       </c>
       <c r="C44" s="9">
@@ -1458,8 +1493,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B45" s="34"/>
+    <row r="45" spans="1:15">
+      <c r="B45" s="43"/>
       <c r="C45" s="14">
         <v>0.51500000000000001</v>
       </c>
@@ -1490,8 +1525,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B46" s="34"/>
+    <row r="46" spans="1:15">
+      <c r="B46" s="43"/>
       <c r="C46" s="13">
         <v>4.2999999999999997E-2</v>
       </c>
@@ -1522,8 +1557,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="36" x14ac:dyDescent="0.15">
-      <c r="B47" s="35"/>
+    <row r="47" spans="1:15" ht="36">
+      <c r="B47" s="44"/>
       <c r="C47" s="18">
         <v>142990</v>
       </c>
@@ -1554,8 +1589,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B48" s="33" t="s">
+    <row r="48" spans="1:15">
+      <c r="B48" s="42" t="s">
         <v>39</v>
       </c>
       <c r="C48" s="10">
@@ -1588,8 +1623,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B49" s="34"/>
+    <row r="49" spans="2:15">
+      <c r="B49" s="43"/>
       <c r="C49" s="15">
         <v>0.60099999999999998</v>
       </c>
@@ -1620,8 +1655,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B50" s="34"/>
+    <row r="50" spans="2:15">
+      <c r="B50" s="43"/>
       <c r="C50" s="13">
         <v>4.5999999999999999E-2</v>
       </c>
@@ -1652,8 +1687,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="2:15" ht="36" x14ac:dyDescent="0.15">
-      <c r="B51" s="35"/>
+    <row r="51" spans="2:15" ht="36">
+      <c r="B51" s="44"/>
       <c r="C51" s="29">
         <v>193990</v>
       </c>
@@ -1684,8 +1719,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B52" s="33" t="s">
+    <row r="52" spans="2:15">
+      <c r="B52" s="42" t="s">
         <v>40</v>
       </c>
       <c r="C52" s="11"/>
@@ -1704,8 +1739,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B53" s="34"/>
+    <row r="53" spans="2:15">
+      <c r="B53" s="43"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
@@ -1722,8 +1757,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B54" s="34"/>
+    <row r="54" spans="2:15">
+      <c r="B54" s="43"/>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
       <c r="E54" s="17"/>
@@ -1740,8 +1775,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="2:15" ht="36" x14ac:dyDescent="0.15">
-      <c r="B55" s="35"/>
+    <row r="55" spans="2:15" ht="36">
+      <c r="B55" s="44"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
@@ -1758,8 +1793,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B56" s="33" t="s">
+    <row r="56" spans="2:15">
+      <c r="B56" s="42" t="s">
         <v>41</v>
       </c>
       <c r="C56" s="11"/>
@@ -1778,8 +1813,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B57" s="34"/>
+    <row r="57" spans="2:15">
+      <c r="B57" s="43"/>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
       <c r="E57" s="17"/>
@@ -1796,8 +1831,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B58" s="34"/>
+    <row r="58" spans="2:15">
+      <c r="B58" s="43"/>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
       <c r="E58" s="17"/>
@@ -1814,8 +1849,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="2:15" ht="36" x14ac:dyDescent="0.15">
-      <c r="B59" s="35"/>
+    <row r="59" spans="2:15" ht="36">
+      <c r="B59" s="44"/>
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
       <c r="E59" s="19"/>
@@ -1832,8 +1867,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B60" s="33" t="s">
+    <row r="60" spans="2:15">
+      <c r="B60" s="42" t="s">
         <v>42</v>
       </c>
       <c r="C60" s="11"/>
@@ -1852,8 +1887,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B61" s="34"/>
+    <row r="61" spans="2:15">
+      <c r="B61" s="43"/>
       <c r="C61" s="17"/>
       <c r="D61" s="17"/>
       <c r="E61" s="17"/>
@@ -1870,8 +1905,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B62" s="34"/>
+    <row r="62" spans="2:15">
+      <c r="B62" s="43"/>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
@@ -1888,8 +1923,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="2:15" ht="36" x14ac:dyDescent="0.15">
-      <c r="B63" s="35"/>
+    <row r="63" spans="2:15" ht="36">
+      <c r="B63" s="44"/>
       <c r="C63" s="19"/>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
@@ -1906,8 +1941,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B64" s="33" t="s">
+    <row r="64" spans="2:15">
+      <c r="B64" s="42" t="s">
         <v>43</v>
       </c>
       <c r="C64" s="11"/>
@@ -1926,8 +1961,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B65" s="34"/>
+    <row r="65" spans="2:15">
+      <c r="B65" s="43"/>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
       <c r="E65" s="17"/>
@@ -1944,8 +1979,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B66" s="34"/>
+    <row r="66" spans="2:15">
+      <c r="B66" s="43"/>
       <c r="C66" s="17"/>
       <c r="D66" s="17"/>
       <c r="E66" s="17"/>
@@ -1962,8 +1997,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="2:15" ht="36" x14ac:dyDescent="0.15">
-      <c r="B67" s="35"/>
+    <row r="67" spans="2:15" ht="36">
+      <c r="B67" s="44"/>
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
@@ -2000,961 +2035,1005 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F631327D-4109-4F60-A7E2-FB3C3DC294EC}">
-  <dimension ref="A1:S57"/>
+  <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27:S34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
     <col min="13" max="14" width="13.1640625" customWidth="1"/>
     <col min="16" max="16" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B5" s="36" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33">
+        <v>4.433333333333335E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="B7" s="33"/>
+    </row>
+    <row r="8" spans="1:17" ht="70">
+      <c r="B8" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C5">
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B7" s="36"/>
-    </row>
-    <row r="8" spans="1:17" ht="70" x14ac:dyDescent="0.15">
-      <c r="B8" s="36" t="s">
+      <c r="C8" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="D8" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="E8" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="H8" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="I8" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="J8" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="K8" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="37" t="s">
+      <c r="L8" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="36" t="s">
+      <c r="O8" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="O8" s="38" t="s">
+      <c r="P8" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="P8" s="39" t="s">
+      <c r="Q8" s="34"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="B9" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="Q8" s="37"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B9" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="C9" s="50">
         <v>0.35099999999999998</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="51">
         <v>0.502</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="52">
         <v>0.54200000000000004</v>
       </c>
-      <c r="H9" s="36" t="s">
-        <v>56</v>
+      <c r="H9" s="33" t="s">
+        <v>55</v>
       </c>
       <c r="I9" s="8">
         <f>C9-C$5</f>
-        <v>0.30299999999999999</v>
+        <v>0.30666666666666664</v>
       </c>
       <c r="J9" s="10">
         <f>D9-C$5</f>
-        <v>0.45400000000000001</v>
+        <v>0.45766666666666667</v>
       </c>
       <c r="K9" s="8">
         <f>E9-C$5</f>
-        <v>0.49400000000000005</v>
+        <v>0.4976666666666667</v>
       </c>
       <c r="L9">
         <f>AVERAGE(I$9:K$9)</f>
-        <v>0.41700000000000004</v>
-      </c>
-      <c r="O9" s="40">
+        <v>0.42066666666666669</v>
+      </c>
+      <c r="O9" s="37">
         <f>L9/L$10</f>
-        <v>0.76002430133657362</v>
-      </c>
-      <c r="P9" s="40">
+        <v>0.76161738080869046</v>
+      </c>
+      <c r="P9" s="37">
         <f>100*O$9</f>
-        <v>76.002430133657356</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B10" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="9">
+        <v>76.161738080869043</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="B10" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="52">
         <v>0.54400000000000004</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="53">
         <v>0.65700000000000003</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="52">
         <v>0.58899999999999997</v>
       </c>
-      <c r="H10" s="36" t="s">
-        <v>57</v>
+      <c r="H10" s="33" t="s">
+        <v>56</v>
       </c>
       <c r="I10" s="8">
         <f t="shared" ref="I10:I16" si="0">C10-C$5</f>
-        <v>0.49600000000000005</v>
+        <v>0.4996666666666667</v>
       </c>
       <c r="J10" s="10">
         <f t="shared" ref="J10:J16" si="1">D10-C$5</f>
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="K10" s="41">
+        <v>0.61266666666666669</v>
+      </c>
+      <c r="K10" s="38">
         <f t="shared" ref="K10:K16" si="2">E10-C$5</f>
-        <v>0.54099999999999993</v>
-      </c>
-      <c r="L10" s="42">
+        <v>0.54466666666666663</v>
+      </c>
+      <c r="L10" s="39">
         <f>(I10+J10+K10)/3</f>
-        <v>0.54866666666666664</v>
-      </c>
-      <c r="M10" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="O10" s="40">
+        <v>0.55233333333333334</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" s="37">
         <f t="shared" ref="O10:O16" si="3">L10/L$10</f>
         <v>1</v>
       </c>
-      <c r="P10" s="40">
-        <f>100*O10</f>
+      <c r="P10" s="37">
+        <f t="shared" ref="P10:P16" si="4">100*O10</f>
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B11" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="20">
-        <v>1.3839999999999999</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="E11" s="7">
+    <row r="11" spans="1:17">
+      <c r="B11" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="54">
+        <v>0.2739999999999998</v>
+      </c>
+      <c r="D11" s="54">
+        <v>0.28800000000000003</v>
+      </c>
+      <c r="E11" s="54">
         <v>0.29299999999999998</v>
       </c>
-      <c r="H11" s="36" t="s">
-        <v>59</v>
+      <c r="H11" s="33" t="s">
+        <v>58</v>
       </c>
       <c r="I11" s="8">
         <f t="shared" si="0"/>
-        <v>1.3359999999999999</v>
+        <v>0.22966666666666646</v>
       </c>
       <c r="J11" s="10">
         <f t="shared" si="1"/>
-        <v>0.58399999999999996</v>
+        <v>0.2436666666666667</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" si="2"/>
-        <v>0.245</v>
+        <v>0.24866666666666665</v>
       </c>
       <c r="L11">
-        <f>AVERAGE(I11:K11)</f>
-        <v>0.72166666666666668</v>
-      </c>
-      <c r="O11" s="40">
+        <f t="shared" ref="L11:L16" si="5">AVERAGE(I11:K11)</f>
+        <v>0.24066666666666658</v>
+      </c>
+      <c r="O11" s="37">
         <f t="shared" si="3"/>
-        <v>1.3153098420413123</v>
-      </c>
-      <c r="P11" s="40">
-        <f>100*O11</f>
-        <v>131.53098420413124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B12" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="21">
-        <v>0.85399999999999998</v>
-      </c>
-      <c r="D12" s="8">
+        <v>0.4357272178636088</v>
+      </c>
+      <c r="P11" s="37">
+        <f t="shared" si="4"/>
+        <v>43.57272178636088</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="B12" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="54">
+        <v>0.52699999999999991</v>
+      </c>
+      <c r="D12" s="51">
         <v>0.49099999999999999</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="55">
         <v>0.43099999999999999</v>
       </c>
-      <c r="H12" s="36" t="s">
-        <v>60</v>
+      <c r="H12" s="33" t="s">
+        <v>59</v>
       </c>
       <c r="I12" s="8">
         <f t="shared" si="0"/>
-        <v>0.80599999999999994</v>
+        <v>0.48266666666666658</v>
       </c>
       <c r="J12" s="10">
         <f t="shared" si="1"/>
-        <v>0.443</v>
+        <v>0.44666666666666666</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" si="2"/>
-        <v>0.38300000000000001</v>
+        <v>0.38666666666666666</v>
       </c>
       <c r="L12">
-        <f>AVERAGE(I12:K12)</f>
-        <v>0.54399999999999993</v>
-      </c>
-      <c r="O12" s="40">
+        <f t="shared" si="5"/>
+        <v>0.43866666666666659</v>
+      </c>
+      <c r="O12" s="37">
         <f t="shared" si="3"/>
-        <v>0.99149453219927086</v>
-      </c>
-      <c r="P12" s="40">
-        <f>100*O12</f>
-        <v>99.149453219927082</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B13" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="9">
+        <v>0.7942063971031984</v>
+      </c>
+      <c r="P12" s="37">
+        <f t="shared" si="4"/>
+        <v>79.420639710319847</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="B13" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="52">
         <v>0.52800000000000002</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="53">
         <v>0.629</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="56">
         <v>0.70499999999999996</v>
       </c>
-      <c r="H13" s="36" t="s">
-        <v>61</v>
+      <c r="H13" s="33" t="s">
+        <v>60</v>
       </c>
       <c r="I13" s="8">
         <f t="shared" si="0"/>
-        <v>0.48000000000000004</v>
+        <v>0.48366666666666669</v>
       </c>
       <c r="J13" s="10">
         <f t="shared" si="1"/>
-        <v>0.58099999999999996</v>
+        <v>0.58466666666666667</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" si="2"/>
-        <v>0.65699999999999992</v>
+        <v>0.66066666666666662</v>
       </c>
       <c r="L13">
-        <f>AVERAGE(I13:K13)</f>
-        <v>0.57266666666666666</v>
-      </c>
-      <c r="O13" s="40">
+        <f t="shared" si="5"/>
+        <v>0.57633333333333336</v>
+      </c>
+      <c r="O13" s="37">
         <f t="shared" si="3"/>
-        <v>1.0437424058323208</v>
-      </c>
-      <c r="P13" s="40">
-        <f>100*O13</f>
-        <v>104.37424058323208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B14" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="8">
+        <v>1.0434520217260108</v>
+      </c>
+      <c r="P13" s="37">
+        <f t="shared" si="4"/>
+        <v>104.34520217260108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="B14" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="51">
         <v>0.48099999999999998</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="53">
         <v>0.60799999999999998</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="52">
         <v>0.58799999999999997</v>
       </c>
-      <c r="H14" s="36" t="s">
-        <v>62</v>
+      <c r="H14" s="33" t="s">
+        <v>61</v>
       </c>
       <c r="I14" s="8">
         <f t="shared" si="0"/>
-        <v>0.433</v>
+        <v>0.43666666666666665</v>
       </c>
       <c r="J14" s="10">
         <f t="shared" si="1"/>
-        <v>0.55999999999999994</v>
+        <v>0.56366666666666665</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" si="2"/>
-        <v>0.53999999999999992</v>
+        <v>0.54366666666666663</v>
       </c>
       <c r="L14">
-        <f>AVERAGE(I14:K14)</f>
-        <v>0.51100000000000001</v>
-      </c>
-      <c r="O14" s="40">
+        <f t="shared" si="5"/>
+        <v>0.51466666666666672</v>
+      </c>
+      <c r="O14" s="37">
         <f t="shared" si="3"/>
-        <v>0.93134872417982995</v>
-      </c>
-      <c r="P14" s="40">
-        <f>100*O14</f>
-        <v>93.13487241798299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B15" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="10">
+        <v>0.93180446590223298</v>
+      </c>
+      <c r="P14" s="37">
+        <f t="shared" si="4"/>
+        <v>93.180446590223298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="B15" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="53">
         <v>0.61399999999999999</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="51">
         <v>0.45200000000000001</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="51">
         <v>0.51700000000000002</v>
       </c>
-      <c r="H15" s="36" t="s">
-        <v>63</v>
+      <c r="H15" s="33" t="s">
+        <v>62</v>
       </c>
       <c r="I15" s="8">
         <f t="shared" si="0"/>
-        <v>0.56599999999999995</v>
+        <v>0.56966666666666665</v>
       </c>
       <c r="J15" s="10">
         <f t="shared" si="1"/>
-        <v>0.40400000000000003</v>
+        <v>0.40766666666666668</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" si="2"/>
-        <v>0.46900000000000003</v>
+        <v>0.47266666666666668</v>
       </c>
       <c r="L15">
-        <f>AVERAGE(I15:K15)</f>
-        <v>0.47966666666666669</v>
-      </c>
-      <c r="O15" s="40">
+        <f t="shared" si="5"/>
+        <v>0.48333333333333339</v>
+      </c>
+      <c r="O15" s="37">
         <f t="shared" si="3"/>
-        <v>0.87424058323207787</v>
-      </c>
-      <c r="P15" s="40">
-        <f>100*O15</f>
-        <v>87.424058323207788</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B16" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="8">
+        <v>0.87507543753771888</v>
+      </c>
+      <c r="P15" s="37">
+        <f t="shared" si="4"/>
+        <v>87.507543753771884</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="B16" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="51">
         <v>0.47499999999999998</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="52">
         <v>0.55300000000000005</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="52">
         <v>0.55300000000000005</v>
       </c>
-      <c r="H16" s="36" t="s">
-        <v>64</v>
+      <c r="H16" s="33" t="s">
+        <v>63</v>
       </c>
       <c r="I16" s="8">
         <f t="shared" si="0"/>
-        <v>0.42699999999999999</v>
+        <v>0.43066666666666664</v>
       </c>
       <c r="J16" s="10">
         <f t="shared" si="1"/>
-        <v>0.505</v>
+        <v>0.50866666666666671</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" si="2"/>
-        <v>0.505</v>
+        <v>0.50866666666666671</v>
       </c>
       <c r="L16">
-        <f>AVERAGE(I16:K16)</f>
-        <v>0.47899999999999993</v>
-      </c>
-      <c r="O16" s="40">
+        <f t="shared" si="5"/>
+        <v>0.48266666666666663</v>
+      </c>
+      <c r="O16" s="37">
         <f t="shared" si="3"/>
-        <v>0.87302551640340209</v>
-      </c>
-      <c r="P16" s="40">
-        <f>100*O16</f>
-        <v>87.302551640340212</v>
-      </c>
-    </row>
-    <row r="20" spans="8:19" ht="42" x14ac:dyDescent="0.15">
-      <c r="H20" s="37" t="s">
-        <v>65</v>
+        <v>0.87386843693421834</v>
+      </c>
+      <c r="P16" s="37">
+        <f t="shared" si="4"/>
+        <v>87.386843693421838</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" ht="42">
+      <c r="H20" s="34" t="s">
+        <v>64</v>
       </c>
       <c r="I20">
         <f>I10/L10</f>
-        <v>0.90400972053462958</v>
+        <v>0.90464695232347625</v>
       </c>
       <c r="J20">
         <f>J10/L10</f>
-        <v>1.1099635479951397</v>
+        <v>1.1092335546167773</v>
       </c>
       <c r="K20">
         <f>K10/L10</f>
-        <v>0.98602673147023079</v>
+        <v>0.98611949305974644</v>
       </c>
       <c r="L20">
         <f>AVERAGE(I20:K20)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="8:19" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:19">
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
       <c r="I23">
         <f>I20*100</f>
-        <v>90.400972053462965</v>
+        <v>90.464695232347623</v>
       </c>
       <c r="J23">
         <f>J20*100</f>
-        <v>110.99635479951398</v>
+        <v>110.92335546167773</v>
       </c>
       <c r="K23">
         <f>K20*100</f>
-        <v>98.602673147023083</v>
+        <v>98.611949305974647</v>
       </c>
       <c r="L23">
         <f>AVERAGE(I23:K23)</f>
-        <v>100.00000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="8:19" ht="28" x14ac:dyDescent="0.15">
-      <c r="H26" s="37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" ht="28">
+      <c r="H26" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="J26" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="N26" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="I26" s="36" t="s">
+      <c r="O26" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="P26" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="J26" s="36" t="s">
+      <c r="Q26" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="K26" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="N26" s="36" t="s">
+      <c r="R26" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="O26" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="P26" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q26" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="R26" s="36" t="s">
+      <c r="S26" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="S26" s="36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="8:19" x14ac:dyDescent="0.15">
-      <c r="H27" s="36" t="s">
+    </row>
+    <row r="27" spans="2:19">
+      <c r="H27" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27" s="37">
+        <f>I9/L$10</f>
+        <v>0.5552202776101387</v>
+      </c>
+      <c r="J27" s="37">
+        <f>J9/L$10</f>
+        <v>0.82860591430295716</v>
+      </c>
+      <c r="K27" s="37">
+        <f>K9/L$10</f>
+        <v>0.90102595051297529</v>
+      </c>
+      <c r="N27" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="O27" s="37">
+        <f>I27*100</f>
+        <v>55.522027761013874</v>
+      </c>
+      <c r="P27" s="37">
+        <f>J27*100</f>
+        <v>82.860591430295713</v>
+      </c>
+      <c r="Q27" s="37">
+        <f>+K27*100</f>
+        <v>90.102595051297527</v>
+      </c>
+      <c r="R27" s="37">
+        <f>AVERAGE(O$27:Q$27)</f>
+        <v>76.161738080869029</v>
+      </c>
+      <c r="S27" s="37">
+        <f>STDEV(O$27:R$27)</f>
+        <v>14.890934281799428</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19">
+      <c r="H28" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I27" s="40">
-        <f>I9/L$10</f>
-        <v>0.55224787363304984</v>
-      </c>
-      <c r="J27" s="40">
-        <f>J9/L$10</f>
-        <v>0.82746051032806811</v>
-      </c>
-      <c r="K27" s="40">
-        <f>K9/L$10</f>
-        <v>0.90036452004860279</v>
-      </c>
-      <c r="N27" s="36" t="s">
+      <c r="I28" s="37">
+        <f t="shared" ref="I28:I34" si="6">I10/L$10</f>
+        <v>0.90464695232347625</v>
+      </c>
+      <c r="J28" s="37">
+        <f t="shared" ref="J28:J34" si="7">J10/L$10</f>
+        <v>1.1092335546167773</v>
+      </c>
+      <c r="K28" s="37">
+        <f t="shared" ref="K28:K34" si="8">K10/L$10</f>
+        <v>0.98611949305974644</v>
+      </c>
+      <c r="N28" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="O27" s="40">
-        <f>I27*100</f>
-        <v>55.224787363304984</v>
-      </c>
-      <c r="P27" s="40">
-        <f>J27*100</f>
-        <v>82.746051032806804</v>
-      </c>
-      <c r="Q27" s="40">
-        <f>+K27*100</f>
-        <v>90.03645200486028</v>
-      </c>
-      <c r="R27" s="40">
-        <f>AVERAGE(O$27:Q$27)</f>
-        <v>76.002430133657356</v>
-      </c>
-      <c r="S27" s="40">
-        <f>STDEV(O$27:R$27)</f>
-        <v>14.990448423415325</v>
-      </c>
-    </row>
-    <row r="28" spans="8:19" x14ac:dyDescent="0.15">
-      <c r="H28" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="I28" s="40">
-        <f t="shared" ref="I28:I34" si="4">I10/L$10</f>
-        <v>0.90400972053462958</v>
-      </c>
-      <c r="J28" s="40">
-        <f t="shared" ref="J28:J34" si="5">J10/L$10</f>
-        <v>1.1099635479951397</v>
-      </c>
-      <c r="K28" s="40">
-        <f t="shared" ref="K28:K34" si="6">K10/L$10</f>
-        <v>0.98602673147023079</v>
-      </c>
-      <c r="N28" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="O28" s="40">
-        <f t="shared" ref="O28:P34" si="7">I28*100</f>
-        <v>90.400972053462965</v>
-      </c>
-      <c r="P28" s="40">
+      <c r="O28" s="37">
+        <f t="shared" ref="O28:P34" si="9">I28*100</f>
+        <v>90.464695232347623</v>
+      </c>
+      <c r="P28" s="37">
+        <f t="shared" si="9"/>
+        <v>110.92335546167773</v>
+      </c>
+      <c r="Q28" s="37">
+        <f t="shared" ref="Q28:Q34" si="10">+K28*100</f>
+        <v>98.611949305974647</v>
+      </c>
+      <c r="R28" s="37">
+        <f>AVERAGE(O$28:Q$28)</f>
+        <v>100</v>
+      </c>
+      <c r="S28" s="37">
+        <f>STDEV(O$28:R$28)</f>
+        <v>8.4096852157371327</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19">
+      <c r="H29" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="I29" s="37">
+        <f t="shared" si="6"/>
+        <v>0.41581170790585359</v>
+      </c>
+      <c r="J29" s="37">
         <f t="shared" si="7"/>
-        <v>110.99635479951398</v>
-      </c>
-      <c r="Q28" s="40">
-        <f t="shared" ref="Q28:Q34" si="8">+K28*100</f>
-        <v>98.602673147023083</v>
-      </c>
-      <c r="R28" s="40">
-        <f>AVERAGE(O$28:Q$28)</f>
-        <v>100.00000000000001</v>
-      </c>
-      <c r="S28" s="40">
-        <f>STDEV(O$28:R$28)</f>
-        <v>8.46588602823598</v>
-      </c>
-    </row>
-    <row r="29" spans="8:19" x14ac:dyDescent="0.15">
-      <c r="H29" s="36" t="s">
+        <v>0.44115872057936034</v>
+      </c>
+      <c r="K29" s="37">
+        <f t="shared" si="8"/>
+        <v>0.45021122510561251</v>
+      </c>
+      <c r="N29" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="O29" s="37">
+        <f t="shared" si="9"/>
+        <v>41.581170790585361</v>
+      </c>
+      <c r="P29" s="37">
+        <f t="shared" si="9"/>
+        <v>44.115872057936031</v>
+      </c>
+      <c r="Q29" s="37">
+        <f t="shared" si="10"/>
+        <v>45.021122510561248</v>
+      </c>
+      <c r="R29" s="37">
+        <f>AVERAGE(O$29:Q$29)</f>
+        <v>43.57272178636088</v>
+      </c>
+      <c r="S29" s="37">
+        <f>STDEV(O$29:R$29)</f>
+        <v>1.4559249344375294</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19">
+      <c r="H30" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="I29" s="40">
-        <f t="shared" si="4"/>
-        <v>2.4349939246658563</v>
-      </c>
-      <c r="J29" s="40">
-        <f t="shared" si="5"/>
-        <v>1.0643985419198057</v>
-      </c>
-      <c r="K29" s="40">
+      <c r="I30" s="37">
         <f t="shared" si="6"/>
-        <v>0.44653705953827461</v>
-      </c>
-      <c r="N29" s="36" t="s">
+        <v>0.87386843693421834</v>
+      </c>
+      <c r="J30" s="37">
+        <f t="shared" si="7"/>
+        <v>0.80869040434520212</v>
+      </c>
+      <c r="K30" s="37">
+        <f t="shared" si="8"/>
+        <v>0.70006035003017497</v>
+      </c>
+      <c r="N30" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="O29" s="40">
+      <c r="O30" s="37">
+        <f t="shared" si="9"/>
+        <v>87.386843693421838</v>
+      </c>
+      <c r="P30" s="37">
+        <f t="shared" si="9"/>
+        <v>80.869040434520215</v>
+      </c>
+      <c r="Q30" s="37">
+        <f t="shared" si="10"/>
+        <v>70.006035003017502</v>
+      </c>
+      <c r="R30" s="37">
+        <f>AVERAGE(O$30:Q$30)</f>
+        <v>79.420639710319861</v>
+      </c>
+      <c r="S30" s="37">
+        <f>STDEV(O30:R30)</f>
+        <v>7.169217817703073</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19">
+      <c r="H31" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I31" s="37">
+        <f t="shared" si="6"/>
+        <v>0.87567893783946893</v>
+      </c>
+      <c r="J31" s="37">
         <f t="shared" si="7"/>
-        <v>243.49939246658562</v>
-      </c>
-      <c r="P29" s="40">
+        <v>1.0585395292697646</v>
+      </c>
+      <c r="K31" s="37">
+        <f t="shared" si="8"/>
+        <v>1.1961375980687989</v>
+      </c>
+      <c r="N31" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="O31" s="37">
+        <f t="shared" si="9"/>
+        <v>87.567893783946886</v>
+      </c>
+      <c r="P31" s="37">
+        <f t="shared" si="9"/>
+        <v>105.85395292697646</v>
+      </c>
+      <c r="Q31" s="37">
+        <f t="shared" si="10"/>
+        <v>119.6137598068799</v>
+      </c>
+      <c r="R31" s="37">
+        <f>AVERAGE(O$31:Q31)</f>
+        <v>104.34520217260108</v>
+      </c>
+      <c r="S31" s="37">
+        <f>STDEV(O31:R31)</f>
+        <v>13.126096879094632</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19">
+      <c r="H32" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="I32" s="37">
+        <f t="shared" si="6"/>
+        <v>0.79058539529269756</v>
+      </c>
+      <c r="J32" s="37">
         <f t="shared" si="7"/>
-        <v>106.43985419198057</v>
-      </c>
-      <c r="Q29" s="40">
+        <v>1.020519010259505</v>
+      </c>
+      <c r="K32" s="37">
         <f t="shared" si="8"/>
-        <v>44.653705953827462</v>
-      </c>
-      <c r="R29" s="40">
-        <f>AVERAGE(O$29:Q$29)</f>
-        <v>131.53098420413122</v>
-      </c>
-      <c r="S29" s="40">
-        <f>STDEV(O$29:R$29)</f>
-        <v>83.094626240800551</v>
-      </c>
-    </row>
-    <row r="30" spans="8:19" x14ac:dyDescent="0.15">
-      <c r="H30" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="I30" s="40">
-        <f t="shared" si="4"/>
-        <v>1.4690157958687728</v>
-      </c>
-      <c r="J30" s="40">
-        <f t="shared" si="5"/>
-        <v>0.8074119076549211</v>
-      </c>
-      <c r="K30" s="40">
+        <v>0.98430899215449597</v>
+      </c>
+      <c r="N32" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="O32" s="37">
+        <f t="shared" si="9"/>
+        <v>79.058539529269751</v>
+      </c>
+      <c r="P32" s="37">
+        <f t="shared" si="9"/>
+        <v>102.0519010259505</v>
+      </c>
+      <c r="Q32" s="37">
+        <f t="shared" si="10"/>
+        <v>98.4308992154496</v>
+      </c>
+      <c r="R32" s="37">
+        <f>AVERAGE(O32:Q32)</f>
+        <v>93.180446590223269</v>
+      </c>
+      <c r="S32" s="37">
+        <f>STDEV(O32:R32)</f>
+        <v>10.094523525376507</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19">
+      <c r="H33" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="37">
         <f t="shared" si="6"/>
-        <v>0.69805589307411908</v>
-      </c>
-      <c r="N30" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="O30" s="40">
+        <v>1.0313820156910078</v>
+      </c>
+      <c r="J33" s="37">
         <f t="shared" si="7"/>
-        <v>146.90157958687729</v>
-      </c>
-      <c r="P30" s="40">
+        <v>0.73808086904043457</v>
+      </c>
+      <c r="K33" s="37">
+        <f t="shared" si="8"/>
+        <v>0.855763427881714</v>
+      </c>
+      <c r="N33" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="O33" s="37">
+        <f t="shared" si="9"/>
+        <v>103.13820156910079</v>
+      </c>
+      <c r="P33" s="37">
+        <f t="shared" si="9"/>
+        <v>73.808086904043464</v>
+      </c>
+      <c r="Q33" s="37">
+        <f t="shared" si="10"/>
+        <v>85.576342788171402</v>
+      </c>
+      <c r="R33" s="37">
+        <f>AVERAGE(O33:Q33)</f>
+        <v>87.507543753771884</v>
+      </c>
+      <c r="S33" s="37">
+        <f>STDEV(O33:R33)</f>
+        <v>12.051585219201247</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19">
+      <c r="H34" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="I34" s="37">
+        <f t="shared" si="6"/>
+        <v>0.77972238986119491</v>
+      </c>
+      <c r="J34" s="37">
         <f t="shared" si="7"/>
-        <v>80.741190765492107</v>
-      </c>
-      <c r="Q30" s="40">
+        <v>0.92094146047073033</v>
+      </c>
+      <c r="K34" s="37">
         <f t="shared" si="8"/>
-        <v>69.805589307411907</v>
-      </c>
-      <c r="R30" s="40">
-        <f>AVERAGE(O$30:Q$30)</f>
-        <v>99.149453219927111</v>
-      </c>
-      <c r="S30" s="40">
-        <f>STDEV(O30:R30)</f>
-        <v>34.059712508439965</v>
-      </c>
-    </row>
-    <row r="31" spans="8:19" x14ac:dyDescent="0.15">
-      <c r="H31" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="I31" s="40">
-        <f t="shared" si="4"/>
-        <v>0.87484811664641571</v>
-      </c>
-      <c r="J31" s="40">
-        <f t="shared" si="5"/>
-        <v>1.0589307411907656</v>
-      </c>
-      <c r="K31" s="40">
-        <f t="shared" si="6"/>
-        <v>1.1974483596597811</v>
-      </c>
-      <c r="N31" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="O31" s="40">
-        <f t="shared" si="7"/>
-        <v>87.484811664641569</v>
-      </c>
-      <c r="P31" s="40">
-        <f t="shared" si="7"/>
-        <v>105.89307411907656</v>
-      </c>
-      <c r="Q31" s="40">
-        <f t="shared" si="8"/>
-        <v>119.74483596597811</v>
-      </c>
-      <c r="R31" s="40">
-        <f>AVERAGE(O$31:Q31)</f>
-        <v>104.37424058323207</v>
-      </c>
-      <c r="S31" s="40">
-        <f>STDEV(O31:R31)</f>
-        <v>13.213816846087404</v>
-      </c>
-    </row>
-    <row r="32" spans="8:19" x14ac:dyDescent="0.15">
-      <c r="H32" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="I32" s="40">
-        <f t="shared" si="4"/>
-        <v>0.78918590522478738</v>
-      </c>
-      <c r="J32" s="40">
-        <f t="shared" si="5"/>
-        <v>1.0206561360874848</v>
-      </c>
-      <c r="K32" s="40">
-        <f t="shared" si="6"/>
-        <v>0.98420413122721739</v>
-      </c>
-      <c r="N32" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="O32" s="40">
-        <f t="shared" si="7"/>
-        <v>78.918590522478738</v>
-      </c>
-      <c r="P32" s="40">
-        <f t="shared" si="7"/>
-        <v>102.06561360874848</v>
-      </c>
-      <c r="Q32" s="40">
-        <f t="shared" si="8"/>
-        <v>98.42041312272174</v>
-      </c>
-      <c r="R32" s="40">
-        <f>AVERAGE(O32:Q32)</f>
-        <v>93.13487241798299</v>
-      </c>
-      <c r="S32" s="40">
-        <f>STDEV(O32:R32)</f>
-        <v>10.16198388915484</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="H33" s="36" t="s">
+        <v>0.92094146047073033</v>
+      </c>
+      <c r="N34" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="40">
-        <f t="shared" si="4"/>
-        <v>1.031591737545565</v>
-      </c>
-      <c r="J33" s="40">
-        <f t="shared" si="5"/>
-        <v>0.73633049817739982</v>
-      </c>
-      <c r="K33" s="40">
-        <f t="shared" si="6"/>
-        <v>0.85479951397326859</v>
-      </c>
-      <c r="N33" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="O33" s="40">
-        <f t="shared" si="7"/>
-        <v>103.15917375455651</v>
-      </c>
-      <c r="P33" s="40">
-        <f t="shared" si="7"/>
-        <v>73.633049817739987</v>
-      </c>
-      <c r="Q33" s="40">
-        <f t="shared" si="8"/>
-        <v>85.479951397326857</v>
-      </c>
-      <c r="R33" s="40">
-        <f>AVERAGE(O33:Q33)</f>
-        <v>87.424058323207802</v>
-      </c>
-      <c r="S33" s="40">
-        <f>STDEV(O33:R33)</f>
-        <v>12.132124367081618</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="H34" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="I34" s="40">
-        <f t="shared" si="4"/>
-        <v>0.77825030376670723</v>
-      </c>
-      <c r="J34" s="40">
-        <f t="shared" si="5"/>
-        <v>0.9204131227217498</v>
-      </c>
-      <c r="K34" s="40">
-        <f t="shared" si="6"/>
-        <v>0.9204131227217498</v>
-      </c>
-      <c r="N34" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="O34" s="40">
-        <f t="shared" si="7"/>
-        <v>77.825030376670725</v>
-      </c>
-      <c r="P34" s="40">
-        <f t="shared" si="7"/>
-        <v>92.041312272174977</v>
-      </c>
-      <c r="Q34" s="40">
-        <f t="shared" si="8"/>
-        <v>92.041312272174977</v>
-      </c>
-      <c r="R34" s="40">
+      <c r="O34" s="37">
+        <f t="shared" si="9"/>
+        <v>77.972238986119493</v>
+      </c>
+      <c r="P34" s="37">
+        <f t="shared" si="9"/>
+        <v>92.094146047073039</v>
+      </c>
+      <c r="Q34" s="37">
+        <f t="shared" si="10"/>
+        <v>92.094146047073039</v>
+      </c>
+      <c r="R34" s="37">
         <f>AVERAGE(O34:Q34)</f>
-        <v>87.302551640340241</v>
-      </c>
-      <c r="S34" s="40">
+        <v>87.386843693421852</v>
+      </c>
+      <c r="S34" s="37">
         <f>STDEV(O34:R34)</f>
-        <v>6.7016195543804011</v>
-      </c>
-    </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="47"/>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="47"/>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="47"/>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B44" s="46"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="47"/>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B45" s="46"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="47"/>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B46" s="46"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="47"/>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B47" s="46"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
+        <v>6.6571308307242933</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19">
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+    </row>
+    <row r="39" spans="2:19">
+      <c r="B39" s="46"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+    </row>
+    <row r="40" spans="2:19">
+      <c r="B40" s="46"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+    </row>
+    <row r="41" spans="2:19">
+      <c r="B41" s="45"/>
+      <c r="C41" s="47">
+        <f>C42-C44</f>
+        <v>0.2739999999999998</v>
+      </c>
+      <c r="D41" s="47">
+        <f>D42-D44</f>
+        <v>0.28800000000000003</v>
+      </c>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="12"/>
+    </row>
+    <row r="42" spans="2:19">
+      <c r="B42" s="45"/>
+      <c r="C42" s="47">
+        <v>1.3839999999999999</v>
+      </c>
+      <c r="D42" s="47">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="E42" s="47">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="49"/>
+    </row>
+    <row r="43" spans="2:19">
+      <c r="B43" s="45"/>
+      <c r="C43" s="47">
+        <v>1.3879999999999999</v>
+      </c>
+      <c r="D43" s="47">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="E43" s="47">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="49"/>
+    </row>
+    <row r="44" spans="2:19">
+      <c r="B44" s="45"/>
+      <c r="C44" s="47">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D44" s="47">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="E44" s="47">
+        <v>0.05</v>
+      </c>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="49"/>
+    </row>
+    <row r="45" spans="2:19">
+      <c r="B45" s="45"/>
+      <c r="C45" s="47">
+        <v>304731</v>
+      </c>
+      <c r="D45" s="47">
+        <v>659203</v>
+      </c>
+      <c r="E45" s="47">
+        <v>996106</v>
+      </c>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="49"/>
+    </row>
+    <row r="46" spans="2:19">
+      <c r="B46" s="45"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="49"/>
+    </row>
+    <row r="47" spans="2:19">
+      <c r="B47" s="45"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
       <c r="H47" s="47"/>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
+      <c r="I47" s="47"/>
+    </row>
+    <row r="48" spans="2:19">
+      <c r="B48" s="41"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
       <c r="H48" s="47"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
+      <c r="I48" s="47"/>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="41"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
       <c r="H49" s="47"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="46"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
+      <c r="I49" s="47"/>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
       <c r="H50" s="47"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B51" s="46"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="46"/>
+      <c r="I50" s="47"/>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
       <c r="H51" s="47"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B52" s="46"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="47"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B53" s="46"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="47"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B54" s="46"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="47"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B55" s="46"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="47"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B56" s="46"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="47"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B57" s="45"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45"/>
+      <c r="I51" s="47"/>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="49"/>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="49"/>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="49"/>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="49"/>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2963,115 +3042,392 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E55A6AC-D3E2-204D-BD11-BF1DF1C948A1}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="3" max="3" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="37">
+        <v>100</v>
+      </c>
+      <c r="C2" s="37">
+        <v>8.46588602823598</v>
+      </c>
+      <c r="D2" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="37">
+        <v>0.12909944487358077</v>
+      </c>
+      <c r="F2" s="35">
+        <v>0.3</v>
+      </c>
+      <c r="G2" s="37">
+        <v>0.6</v>
+      </c>
+      <c r="H2" s="37">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="37">
+        <v>76.161738080869043</v>
+      </c>
+      <c r="C3" s="37">
+        <v>14.890934281799428</v>
+      </c>
+      <c r="D3" s="37">
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="E3" s="37">
+        <v>2.1602468994692869E-2</v>
+      </c>
+      <c r="F3" s="37">
+        <v>0.46</v>
+      </c>
+      <c r="G3" s="37">
+        <v>0.47</v>
+      </c>
+      <c r="H3" s="37">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="40">
-        <v>76.002430133657356</v>
-      </c>
-      <c r="C2" s="40">
-        <v>14.990448423415325</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="40">
-        <v>100</v>
-      </c>
-      <c r="C3" s="40">
-        <v>8.46588602823598</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="40">
-        <v>131.53098420413124</v>
-      </c>
-      <c r="C4" s="40">
-        <v>83.094626240800551</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="36" t="s">
+      <c r="B4" s="37">
+        <v>43.57272178636088</v>
+      </c>
+      <c r="C4" s="37">
+        <v>1.4559249344375294</v>
+      </c>
+      <c r="D4" s="37">
+        <v>56.923333333333325</v>
+      </c>
+      <c r="E4" s="37">
+        <v>15.791749604003879</v>
+      </c>
+      <c r="F4" s="35">
+        <v>35.31</v>
+      </c>
+      <c r="G4" s="37">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="H4" s="37">
+        <v>62.86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="37">
+        <v>79.420639710319847</v>
+      </c>
+      <c r="C5" s="37">
+        <v>7.169217817703073</v>
+      </c>
+      <c r="D5" s="37">
+        <v>23.540000000000003</v>
+      </c>
+      <c r="E5" s="37">
+        <v>5.0228876157047218</v>
+      </c>
+      <c r="F5" s="37">
+        <v>21.29</v>
+      </c>
+      <c r="G5" s="37">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="H5" s="37">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="40">
-        <v>99.149453219927082</v>
-      </c>
-      <c r="C5" s="40">
-        <v>34.059712508439965</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="36" t="s">
+      <c r="B6" s="37">
+        <v>104.34520217260108</v>
+      </c>
+      <c r="C6" s="37">
+        <v>13.126096879094632</v>
+      </c>
+      <c r="D6" s="37">
+        <v>0.59333333333333327</v>
+      </c>
+      <c r="E6" s="37">
+        <v>0.12256517540566843</v>
+      </c>
+      <c r="F6" s="37">
+        <v>0.6</v>
+      </c>
+      <c r="G6" s="37">
+        <v>0.74</v>
+      </c>
+      <c r="H6" s="37">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="40">
-        <v>104.37424058323208</v>
-      </c>
-      <c r="C6" s="40">
-        <v>13.213816846087404</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="36" t="s">
+      <c r="B7" s="37">
+        <v>93.180446590223298</v>
+      </c>
+      <c r="C7" s="37">
+        <v>10.094523525376507</v>
+      </c>
+      <c r="D7" s="37">
+        <v>1.5033333333333332</v>
+      </c>
+      <c r="E7" s="37">
+        <v>2.0548046676563275E-2</v>
+      </c>
+      <c r="F7" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="G7" s="37">
+        <v>1.53</v>
+      </c>
+      <c r="H7" s="37">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="40">
-        <v>93.13487241798299</v>
-      </c>
-      <c r="C7" s="40">
-        <v>10.16198388915484</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="36" t="s">
+      <c r="B8" s="37">
+        <v>87.507543753771884</v>
+      </c>
+      <c r="C8" s="37">
+        <v>12.051585219201247</v>
+      </c>
+      <c r="D8" s="37">
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="E8" s="37">
+        <v>0.75526301526171891</v>
+      </c>
+      <c r="F8" s="37">
+        <v>3.16</v>
+      </c>
+      <c r="G8" s="37">
+        <v>1.33</v>
+      </c>
+      <c r="H8" s="37">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="40">
-        <v>87.424058323207788</v>
-      </c>
-      <c r="C8" s="40">
-        <v>12.132124367081618</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="40">
-        <v>87.302551640340212</v>
-      </c>
-      <c r="C9" s="40">
-        <v>6.7016195543804011</v>
-      </c>
+      <c r="B9" s="37">
+        <v>87.386843693421838</v>
+      </c>
+      <c r="C9" s="37">
+        <v>6.6571308307242933</v>
+      </c>
+      <c r="D9" s="37">
+        <v>0.71133333333333348</v>
+      </c>
+      <c r="E9" s="37">
+        <v>0.40088679477156913</v>
+      </c>
+      <c r="F9" s="37">
+        <v>0.9</v>
+      </c>
+      <c r="G9" s="37">
+        <v>0.154</v>
+      </c>
+      <c r="H9" s="37">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="33"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+    </row>
+    <row r="31" spans="3:6">
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+    </row>
+    <row r="32" spans="3:6">
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
